--- a/data/trans_dic/P23_1_2016_2023_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_2016_2023_R-Edad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2953728341561818</v>
+        <v>0.2884789334928698</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1640511028437588</v>
+        <v>0.1658665351510424</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2219992097153932</v>
+        <v>0.2254939619508431</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1389716173238099</v>
+        <v>0.1384647596380434</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2724208521386178</v>
+        <v>0.2693579811175146</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1697697679792037</v>
+        <v>0.1658950083008145</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3873452132997553</v>
+        <v>0.3886175636986546</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2961491666069935</v>
+        <v>0.3044473485998735</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3103823447642989</v>
+        <v>0.3092119559997805</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2483028388009882</v>
+        <v>0.252308235044273</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.335995436995019</v>
+        <v>0.3361620931854837</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.258894092438462</v>
+        <v>0.2524242861765066</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.4421407045412315</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.338896956956284</v>
+        <v>0.3388969569562839</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.3780202084605866</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4036583526821732</v>
+        <v>0.3963717938985948</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2897273467052681</v>
+        <v>0.2886833085106894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3414263609217993</v>
+        <v>0.3424789266916847</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2053131794484696</v>
+        <v>0.2042312333209721</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3806241978676164</v>
+        <v>0.3811258774642838</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2580807060970002</v>
+        <v>0.25597663406664</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4915724086760918</v>
+        <v>0.482342195790694</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4011432062353909</v>
+        <v>0.4000145038106801</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4186444736600579</v>
+        <v>0.4189537151911246</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2863313565025418</v>
+        <v>0.2863309110506156</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4406528996003245</v>
+        <v>0.4374601761765068</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3274311738219759</v>
+        <v>0.3268007811669552</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.3339250966880152</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2354099921867466</v>
+        <v>0.2354099921867465</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3662576030956431</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3601026780836334</v>
+        <v>0.3596338548248419</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2345097549892713</v>
+        <v>0.2384943185293753</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2976843842844498</v>
+        <v>0.3021809335445248</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2071877444429401</v>
+        <v>0.2055716726772067</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.339689111224555</v>
+        <v>0.3407303660691722</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2318811366263899</v>
+        <v>0.2303947134233771</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4363065408386834</v>
+        <v>0.439962482063779</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3091693329763906</v>
+        <v>0.3159172737185306</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3723796577164915</v>
+        <v>0.3713214244282616</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2655855012285732</v>
+        <v>0.2644490890069242</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3941022711721933</v>
+        <v>0.3908516721731097</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2793661468306937</v>
+        <v>0.277428854702842</v>
       </c>
     </row>
     <row r="13">
@@ -858,19 +858,19 @@
         <v>0.4299958890964127</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2792388810864468</v>
+        <v>0.2792388810864467</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.3567894745033369</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2371804883644381</v>
+        <v>0.2371804883644382</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3933668561170007</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.2576820657195051</v>
+        <v>0.2576820657195052</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3906066803548922</v>
+        <v>0.3908393897911941</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.243354880530208</v>
+        <v>0.2433806558791516</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3192257650000268</v>
+        <v>0.3201017051305837</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2149637579100352</v>
+        <v>0.2131030374447671</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3650876948877068</v>
+        <v>0.3652085419931137</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2346290502461087</v>
+        <v>0.2370498975417364</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4753060125468226</v>
+        <v>0.4716628990548051</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3135577865416075</v>
+        <v>0.3159866409829198</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3992950695335936</v>
+        <v>0.3951312691957163</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2646379844654483</v>
+        <v>0.2648238460781923</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4204031089668305</v>
+        <v>0.4215612481851761</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2773491672495914</v>
+        <v>0.2789324512527424</v>
       </c>
     </row>
     <row r="16">
@@ -940,13 +940,13 @@
         <v>0.3072415637655997</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.3094566729138554</v>
+        <v>0.3094566729138553</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.2301353676725043</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2206366767770417</v>
+        <v>0.2206366767770418</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2679827850738919</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2658408175876059</v>
+        <v>0.2609505881001148</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2740496942816641</v>
+        <v>0.2718199035329502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1932650249942492</v>
+        <v>0.1932869916465923</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1940523848148698</v>
+        <v>0.1949774479669679</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2380681211048016</v>
+        <v>0.2367125885262868</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2399207022290941</v>
+        <v>0.2437090130271052</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3524269872639174</v>
+        <v>0.355844388328128</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3475876555224359</v>
+        <v>0.3462104165229354</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2749902618076372</v>
+        <v>0.2737190158316259</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2475055550872296</v>
+        <v>0.2477471097871684</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2989868450033152</v>
+        <v>0.2973887360940768</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2866920851009369</v>
+        <v>0.2891166407241158</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>0.174174624380989</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.1839516027387819</v>
+        <v>0.183951602738782</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.07948779315764165</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1354294482394501</v>
+        <v>0.1322135683388226</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1525702626678465</v>
+        <v>0.1558120087176384</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0525032064539378</v>
+        <v>0.05511237481119341</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1025339481142525</v>
+        <v>0.1044291007868913</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09977244008371768</v>
+        <v>0.1016137908973508</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1323404324390721</v>
+        <v>0.133028914193866</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2227403578392493</v>
+        <v>0.2168187409524639</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.215987704134493</v>
+        <v>0.2199313946491199</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1088906304326942</v>
+        <v>0.1097977243392328</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1493621973087177</v>
+        <v>0.1478044267509677</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1542455892223623</v>
+        <v>0.1546018971738073</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.172830792381512</v>
+        <v>0.1733818786680252</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>0.04866632667031374</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.03481173488872831</v>
+        <v>0.0348117348887283</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06594963752986752</v>
+        <v>0.0656425224494689</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0446016504959353</v>
+        <v>0.04402963576807824</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006981452614287753</v>
+        <v>0.006829916129236302</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.007709211495819154</v>
+        <v>0.007789770371150108</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03465452570236315</v>
+        <v>0.03426394347708335</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02477743747641364</v>
+        <v>0.02488038986913312</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1355170315306122</v>
+        <v>0.130457476627504</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09377036686177577</v>
+        <v>0.09172666776636187</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04107199059110073</v>
+        <v>0.04301202270955962</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02408922360006007</v>
+        <v>0.02480910100344886</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06695502021370836</v>
+        <v>0.06871491059836694</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04636000750505442</v>
+        <v>0.04605380271803999</v>
       </c>
     </row>
     <row r="25">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3298913901695234</v>
+        <v>0.3290120175879894</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2382641432519156</v>
+        <v>0.2394022922885192</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2456685304786344</v>
+        <v>0.2451734870609874</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1777417211281965</v>
+        <v>0.178519485723527</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2908360125738308</v>
+        <v>0.292048827185374</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2118000868114483</v>
+        <v>0.2118551120516892</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3631035297314275</v>
+        <v>0.3628549158123226</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2718623964469848</v>
+        <v>0.2719471848166741</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2757115418303183</v>
+        <v>0.2770235842803463</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2004202949547753</v>
+        <v>0.2026964780136919</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3140923339294397</v>
+        <v>0.3148988635813798</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2318568348086373</v>
+        <v>0.2320091775632078</v>
       </c>
     </row>
     <row r="28">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>123898</v>
+        <v>121006</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>66899</v>
+        <v>67639</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>87857</v>
+        <v>89240</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>50036</v>
+        <v>49854</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>222082</v>
+        <v>219585</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>130356</v>
+        <v>127381</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>162477</v>
+        <v>163011</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>120768</v>
+        <v>124151</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>122835</v>
+        <v>122372</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>89401</v>
+        <v>90843</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>273910</v>
+        <v>274045</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>198790</v>
+        <v>193822</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>238359</v>
+        <v>234056</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>138168</v>
+        <v>137670</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>192409</v>
+        <v>193002</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>102879</v>
+        <v>102337</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>439256</v>
+        <v>439835</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>252396</v>
+        <v>250338</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>290272</v>
+        <v>284821</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>191301</v>
+        <v>190763</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>235925</v>
+        <v>236099</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>143476</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>508531</v>
+        <v>504847</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>320219</v>
+        <v>319602</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>240558</v>
+        <v>240244</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>145316</v>
+        <v>147785</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>196608</v>
+        <v>199578</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>128900</v>
+        <v>127894</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>451271</v>
+        <v>452654</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>287950</v>
+        <v>286104</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>291464</v>
+        <v>293906</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>191580</v>
+        <v>195761</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>245941</v>
+        <v>245243</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>165231</v>
+        <v>164524</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>523558</v>
+        <v>519240</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>346916</v>
+        <v>344511</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>252351</v>
+        <v>252501</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>170221</v>
+        <v>170239</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>206527</v>
+        <v>207093</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>158101</v>
+        <v>156733</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>472062</v>
+        <v>472218</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>336682</v>
+        <v>340156</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>307070</v>
+        <v>304717</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>219326</v>
+        <v>221025</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>258328</v>
+        <v>255635</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>194635</v>
+        <v>194772</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>543585</v>
+        <v>545082</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>397983</v>
+        <v>400255</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>127050</v>
+        <v>124713</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>166695</v>
+        <v>165339</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>95809</v>
+        <v>95820</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>118150</v>
+        <v>118713</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>231797</v>
+        <v>230477</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>292012</v>
+        <v>296623</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>168431</v>
+        <v>170064</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>211425</v>
+        <v>210588</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>136324</v>
+        <v>135693</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>150695</v>
+        <v>150842</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>291111</v>
+        <v>289555</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>348939</v>
+        <v>351890</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>45278</v>
+        <v>44203</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>62108</v>
+        <v>63428</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>19834</v>
+        <v>20819</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>45029</v>
+        <v>45862</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>71047</v>
+        <v>72358</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>111993</v>
+        <v>112575</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>74469</v>
+        <v>72489</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>87924</v>
+        <v>89530</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>41135</v>
+        <v>41477</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>65595</v>
+        <v>64911</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>109837</v>
+        <v>110091</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>146257</v>
+        <v>146724</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>16892</v>
+        <v>16813</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>13835</v>
+        <v>13658</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2785</v>
+        <v>2724</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3582</v>
+        <v>3619</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>22699</v>
+        <v>22443</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>19198</v>
+        <v>19278</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>34710</v>
+        <v>33414</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>29087</v>
+        <v>28453</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>16383</v>
+        <v>17157</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>11192</v>
+        <v>11527</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>43857</v>
+        <v>45009</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>35920</v>
+        <v>35683</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1119128</v>
+        <v>1116145</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>840920</v>
+        <v>844937</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>869446</v>
+        <v>867694</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>663222</v>
+        <v>666124</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2015935</v>
+        <v>2024341</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1537825</v>
+        <v>1538225</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1231797</v>
+        <v>1230954</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>959501</v>
+        <v>959800</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>975772</v>
+        <v>980415</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>747844</v>
+        <v>756338</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2177136</v>
+        <v>2182727</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1683452</v>
+        <v>1684558</v>
       </c>
     </row>
     <row r="36">
